--- a/biology/Zoologie/Glaphyroptera_insignis/Glaphyroptera_insignis.xlsx
+++ b/biology/Zoologie/Glaphyroptera_insignis/Glaphyroptera_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaphyroptera
 Glaphyroptera insignis, unique représentant du genre fossile Glaphyroptera, est une espèce fossile d'insectes coléoptères de la famille des Buprestidae.
@@ -512,33 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Glaphyroptera et l'espèce Glaphyroptera insignis sont décrits en 1852 par le paléontologue suisse Oswald Heer (1809-1883)[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées[2] :
-Éocène, une collection en Allemagne, avec un fossile venant de Geiseltal, de la collection Halle, décrite en 1935 par Alexander Pongrácz (d)[3] ;
-Jurassique, une collection en Suisse, venant de la formation Insektenmergel, Schambelen, dans le canton d'Argovie, et décrite en 1852 par Oswald Heer[1],[2].
-Ceci atteste la présence de l'espèce Glaphyroptera insignis et du genre Glaphyroptera depuis l'Hettangien du Jurassique inférieur au Lutétien de l'Éocène, soit de 201,3 à 41,3 Ma avant notre ère[2].
-Citations
-Ce genre est cité en :
-1891 par l'entomologiste allemand Bruno Förster (1852-1924)[4] ;
-1906 par l'entomologiste autrichien Anton Handlirsch (1865-1935)[5] ;
-2008 par l'entomologiste américain Charles Lawrence Bellamy (d)[6] ;
-2011 par l'entomologiste canadien Patrice Bouchard (d) et al.[7].
-Étymologie
-L'épithète spécifique insignis signifie en latin « remarquable ».
-Historique
-Le genre Glaphyroptera n'a pas toujours été monotypique :
-l'espèce †Glaphyroptera brevicollis Heer, 1864 est renommée en †Proctobuprestis brevicollis (Heer, 1864) en 1906 par Anton Handlirsch[8] ;
-l'espèce †Glaphyroptera crassiuscula Förster, 1891 est renommée †Leia crassiuscula (Förster, 1891) en 1909 par Oskar Augustus Johannsen[9] ;
-l'espèce †Glaphyroptera depressa Heer, 1852 est renommée en †Glaphyropterites depressus (Heer, 1852) en 1906 par Anton Handlirsch[10] ;
-l'espèce †Glaphyroptera gehreti Heer, 1852 est renommée en †Glaphyropterodes gehreti (Heer, 1852) en 1906 par Anton Handlirsch[11] ;
-l'espèce †Glaphyroptera gracillima Förster, 1891 est renommée en †Leia gracillima (Förster, 1891) en 1909 par Oskar Augustus Johannsen[12] ;
-l'espèce †Glaphyroptera longipes Förster, 1891 est renommée en †Leia longipes (Förster, 1891) en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[13] ;
-l'espèce †Glaphyroptera lotharingiaca Fliche, 1901 est renommée en †Flichea lotharingiaca (Fliche, 1901) en 1906 par Anton Handlirsch[14] ;
-l'espèce †Glaphyroptera spectabilis Heer, 1864[15] est déclarée nomen dubium par Anton Handlirsch en 1906 [16] du genre Coleopteron Handlirech, 1906[17].
-Par ailleurs, le genre Glaphyroptera Winnertz, 1863 est déclaré « synonyme subjectif » du genre Leia en 1909 par l'entomologiste américain Oskar Augustus Johannsen (en)[18] et en 1994 par Neal Luit Evenhuis[19],[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glaphyroptera et l'espèce Glaphyroptera insignis sont décrits en 1852 par le paléontologue suisse Oswald Heer (1809-1883),.
 </t>
         </is>
       </c>
@@ -564,10 +554,175 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées :
+Éocène, une collection en Allemagne, avec un fossile venant de Geiseltal, de la collection Halle, décrite en 1935 par Alexander Pongrácz (d) ;
+Jurassique, une collection en Suisse, venant de la formation Insektenmergel, Schambelen, dans le canton d'Argovie, et décrite en 1852 par Oswald Heer,.
+Ceci atteste la présence de l'espèce Glaphyroptera insignis et du genre Glaphyroptera depuis l'Hettangien du Jurassique inférieur au Lutétien de l'Éocène, soit de 201,3 à 41,3 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre est cité en :
+1891 par l'entomologiste allemand Bruno Förster (1852-1924) ;
+1906 par l'entomologiste autrichien Anton Handlirsch (1865-1935) ;
+2008 par l'entomologiste américain Charles Lawrence Bellamy (d) ;
+2011 par l'entomologiste canadien Patrice Bouchard (d) et al..</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique insignis signifie en latin « remarquable ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glaphyroptera n'a pas toujours été monotypique :
+l'espèce †Glaphyroptera brevicollis Heer, 1864 est renommée en †Proctobuprestis brevicollis (Heer, 1864) en 1906 par Anton Handlirsch ;
+l'espèce †Glaphyroptera crassiuscula Förster, 1891 est renommée †Leia crassiuscula (Förster, 1891) en 1909 par Oskar Augustus Johannsen ;
+l'espèce †Glaphyroptera depressa Heer, 1852 est renommée en †Glaphyropterites depressus (Heer, 1852) en 1906 par Anton Handlirsch ;
+l'espèce †Glaphyroptera gehreti Heer, 1852 est renommée en †Glaphyropterodes gehreti (Heer, 1852) en 1906 par Anton Handlirsch ;
+l'espèce †Glaphyroptera gracillima Förster, 1891 est renommée en †Leia gracillima (Förster, 1891) en 1909 par Oskar Augustus Johannsen ;
+l'espèce †Glaphyroptera longipes Förster, 1891 est renommée en †Leia longipes (Förster, 1891) en 1937 par le paléontologue français Nicolas Théobald (1903-1981) ;
+l'espèce †Glaphyroptera lotharingiaca Fliche, 1901 est renommée en †Flichea lotharingiaca (Fliche, 1901) en 1906 par Anton Handlirsch ;
+l'espèce †Glaphyroptera spectabilis Heer, 1864 est déclarée nomen dubium par Anton Handlirsch en 1906  du genre Coleopteron Handlirech, 1906.
+Par ailleurs, le genre Glaphyroptera Winnertz, 1863 est déclaré « synonyme subjectif » du genre Leia en 1909 par l'entomologiste américain Oskar Augustus Johannsen (en) et en 1994 par Neal Luit Evenhuis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyroptera_insignis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
